--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProjects\DeadLine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E68E01-0280-4095-A624-A0CBADD6525E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845A09E-1026-4FA6-B830-6F7033C9928F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14610" yWindow="4140" windowWidth="18900" windowHeight="11055" xr2:uid="{16DAC981-6A9F-402B-818C-EB9E5B21B625}"/>
+    <workbookView xWindow="750" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{16DAC981-6A9F-402B-818C-EB9E5B21B625}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
-  <si>
-    <t>總表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廠商票期折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>12月</t>
   </si>
   <si>
     <t>12月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬性1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬性2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670DF903-0C73-4E5A-AB32-01AF74498523}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -415,84 +459,174 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10">
         <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
